--- a/medicine/Mort/Monument_des_travailleurs_municipaux/Monument_des_travailleurs_municipaux.xlsx
+++ b/medicine/Mort/Monument_des_travailleurs_municipaux/Monument_des_travailleurs_municipaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le monument des travailleurs municipaux est un monument aux morts élevé par la Ville de Paris et situé au cimetière du Père-Lachaise. Il rend hommage aux agents municipaux de la Ville de Paris victime du devoir.
 </t>
@@ -511,19 +523,21 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 4 mai 1883 est inauguré, au cimetière du Montparnasse, le monument élevé à la mémoire des sapeurs-pompiers de Paris, morts au feu. Trois ans plus tard, le 8 juillet 1886, un monument élevé à la mémoire des agents de police à Paris morts victimes de leur dévouement est élevé dans le même cimetière[1].
-En 1892, le Conseil municipal adopte une délibération pour la construction d'un monument destiné aux ouvriers municipaux décédés dans leur service. Cette proposition faisait suite à la pétition de Louis-Auguste Vorbe au nom de la Chambre syndicale des ouvriers égoutiers de la Ville, relayée par Adolphe Patenne au nom de la Commission du travail du Conseil municipal[2]. Le projet initial consistait à ériger le monument au cimetière du Montparnasse, aux côtés des monuments analogue à ceux déjà édifiés pour la sépulture des sapeurs-pompiers et des gardiens de la paix[3],[4],[5],[6]. Ce premier projet est abandonné, jugé de proportion trop restreinte et ne répondant pas à l'ambition artistique du Conseil municipal[7].
-En 1895, le Conseil municipal décide d'ériger, cette fois-ci au cimetière du Père-Lachaise, au lieu dit le « Carrefour Michelet » (dorénavant appelé « rond-point des travailleurs municipaux »), un monument aux travailleurs municipaux, victimes de leur devoir[2]. La Ville poursuit un double objectif : témoigner d'un esprit philanthropique et républicain mais aussi contribuer à l'aménagement de ce rond-point magnifiquement situé entre la chapelle de Salvage de Faverolles (1785-1854), la chapelle de Charles de Morny (1811-1865), la sépulture de Pierre-Frédéric Dorian (1814-1873), la sépulture de l'historien Jules Michelet (1798-1874)[8] et à proximité des monuments aux combattants de la guerre de 1870 (Siège de Paris et Bataille de Buzenval). La Ville cherche également à faciliter la vente des terrains restant à concéder dans cette partie du cimetière.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 4 mai 1883 est inauguré, au cimetière du Montparnasse, le monument élevé à la mémoire des sapeurs-pompiers de Paris, morts au feu. Trois ans plus tard, le 8 juillet 1886, un monument élevé à la mémoire des agents de police à Paris morts victimes de leur dévouement est élevé dans le même cimetière.
+En 1892, le Conseil municipal adopte une délibération pour la construction d'un monument destiné aux ouvriers municipaux décédés dans leur service. Cette proposition faisait suite à la pétition de Louis-Auguste Vorbe au nom de la Chambre syndicale des ouvriers égoutiers de la Ville, relayée par Adolphe Patenne au nom de la Commission du travail du Conseil municipal. Le projet initial consistait à ériger le monument au cimetière du Montparnasse, aux côtés des monuments analogue à ceux déjà édifiés pour la sépulture des sapeurs-pompiers et des gardiens de la paix. Ce premier projet est abandonné, jugé de proportion trop restreinte et ne répondant pas à l'ambition artistique du Conseil municipal.
+En 1895, le Conseil municipal décide d'ériger, cette fois-ci au cimetière du Père-Lachaise, au lieu dit le « Carrefour Michelet » (dorénavant appelé « rond-point des travailleurs municipaux »), un monument aux travailleurs municipaux, victimes de leur devoir. La Ville poursuit un double objectif : témoigner d'un esprit philanthropique et républicain mais aussi contribuer à l'aménagement de ce rond-point magnifiquement situé entre la chapelle de Salvage de Faverolles (1785-1854), la chapelle de Charles de Morny (1811-1865), la sépulture de Pierre-Frédéric Dorian (1814-1873), la sépulture de l'historien Jules Michelet (1798-1874) et à proximité des monuments aux combattants de la guerre de 1870 (Siège de Paris et Bataille de Buzenval). La Ville cherche également à faciliter la vente des terrains restant à concéder dans cette partie du cimetière.
 			Salvage de Faverolles
 			Charles de Morny
 			Pierre-Frédéric Dorian
 			Jules Michelet
-Le conseil municipal adopte la délibération du 19 juin 1896 approuvant la construction d'un monument destiné à la sépulture des travailleurs municipaux au Père-Lachaise dans la limite d'une dépense de 35 000 francs. Le 29 décembre, le conseil municipal confie à l'architecte Charles-André Duprez la réalisation du monument et au statuaire Denys Puech la réalisation d'une figure allégorique de la ville de Paris en allouant 6 000 francs[9],[10]. Il est également nécessaire de déplacer quatre sépultures afin d'améliorer l'accès des divisions[11].
-La construction du monument est terminée en novembre 1899[13],[14]. Le transfert des restes des ouvriers égoutiers décédés victimes de leur devoir est approuvé en 1901[15],[16]. Le 24 septembre 1901, les dépouilles des  égoutiers Deloy, Lenfant, Marcourt et Puisségur rejoignent dans le caveau des travailleurs municipaux celles de Bravard et Étevenon enterrées le 10 décembre 1899[17].
-En 1904, une remise en état du monument est nécessaire. Il est également décidé d'ajouter l'inscription sur la face antérieure l'inscription « Aux travailleurs municipaux, la ville de Paris » suivie des noms, prénoms, professions et date de décès de chaque des ouvriers qui s'y trouvent inhumés[18].
-En 1906, la sépulture devient également un monument du souvenir. Il est décidé l'ajout de l'inscription « À la mémoire de ses serviteurs victimes du devoir, la ville de Paris » sur la face postérieure pour que le monument serve à commémorer la mémoire de personnes qui n'y sont pas inhumées[19].
+Le conseil municipal adopte la délibération du 19 juin 1896 approuvant la construction d'un monument destiné à la sépulture des travailleurs municipaux au Père-Lachaise dans la limite d'une dépense de 35 000 francs. Le 29 décembre, le conseil municipal confie à l'architecte Charles-André Duprez la réalisation du monument et au statuaire Denys Puech la réalisation d'une figure allégorique de la ville de Paris en allouant 6 000 francs,. Il est également nécessaire de déplacer quatre sépultures afin d'améliorer l'accès des divisions.
+La construction du monument est terminée en novembre 1899,. Le transfert des restes des ouvriers égoutiers décédés victimes de leur devoir est approuvé en 1901,. Le 24 septembre 1901, les dépouilles des  égoutiers Deloy, Lenfant, Marcourt et Puisségur rejoignent dans le caveau des travailleurs municipaux celles de Bravard et Étevenon enterrées le 10 décembre 1899.
+En 1904, une remise en état du monument est nécessaire. Il est également décidé d'ajouter l'inscription sur la face antérieure l'inscription « Aux travailleurs municipaux, la ville de Paris » suivie des noms, prénoms, professions et date de décès de chaque des ouvriers qui s'y trouvent inhumés.
+En 1906, la sépulture devient également un monument du souvenir. Il est décidé l'ajout de l'inscription « À la mémoire de ses serviteurs victimes du devoir, la ville de Paris » sur la face postérieure pour que le monument serve à commémorer la mémoire de personnes qui n'y sont pas inhumées.
 </t>
         </is>
       </c>
@@ -554,18 +568,59 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monument
+          <t>Monument</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Rond-point
 			Statue de femme drapée, allégorie de la Ville de Paris et de la Douleur
 			Armes de la ville de Paris
 			Entrée du caveau cantonnée de couronnes de laurier et surmontée d'une fleur de pensé
-La Ville de Paris décrit ainsi l'édifice : le monument en pierre d'Euville se compose d'un obélisque de cinq mètres de hauteur surmontant un piédestal, entouré de quatre coffrets dont l'un présente l'entrée du caveau. Cet ensemble formant croix s'inscrit au centre d'un soubassement circulaire, garni de plantations. À l'avant de l'obélisque, une statue d'une femme drapée, allégorie de la Ville de Paris et de la Douleur, est assise sur un vaisseau symbolique (nef municipale). Comme toute représentation de ville, sa tête est surmontée d'une couronne en forme de muraille. Un voile de deuil transparent lui couvre le visage. De sa main gauche, elle tient deux couronnes d'immortelles. Son bras droit est recouvert de deux longues palmes. La face avant de son piédestal est décorée des armes de la Ville de Paris. L'entrée du caveau est cantonnée de couronnes de laurier (signe de valeur et de reconnaissance) et surmontée d'une fleur de pensée, symbolisant le souvenir et la méditation[20].
+La Ville de Paris décrit ainsi l'édifice : le monument en pierre d'Euville se compose d'un obélisque de cinq mètres de hauteur surmontant un piédestal, entouré de quatre coffrets dont l'un présente l'entrée du caveau. Cet ensemble formant croix s'inscrit au centre d'un soubassement circulaire, garni de plantations. À l'avant de l'obélisque, une statue d'une femme drapée, allégorie de la Ville de Paris et de la Douleur, est assise sur un vaisseau symbolique (nef municipale). Comme toute représentation de ville, sa tête est surmontée d'une couronne en forme de muraille. Un voile de deuil transparent lui couvre le visage. De sa main gauche, elle tient deux couronnes d'immortelles. Son bras droit est recouvert de deux longues palmes. La face avant de son piédestal est décorée des armes de la Ville de Paris. L'entrée du caveau est cantonnée de couronnes de laurier (signe de valeur et de reconnaissance) et surmontée d'une fleur de pensée, symbolisant le souvenir et la méditation.
 			Face antérieure, inscription ajoutée en 1904
 			Face postérieure, inscription ajoutée en 1906
 			Côté
 			Côté
-Sépulture
-À l'origine, la sépulture se composait de trois caveaux disposés en triangle, l'un dans la partie postérieure et les deux autres sur les côtés, et reliés par une galerie circulaire en pierre[8]. Ne restant plus que quatre cases disponibles en 1916, il a été décidé de construire un quatrième caveau, de soixante cases, dans la partie antérieure inoccupée[21]. Le budget sera finalement débloqué en 1923[22].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Monument_des_travailleurs_municipaux</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Monument_des_travailleurs_municipaux</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sépulture</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'origine, la sépulture se composait de trois caveaux disposés en triangle, l'un dans la partie postérieure et les deux autres sur les côtés, et reliés par une galerie circulaire en pierre. Ne restant plus que quatre cases disponibles en 1916, il a été décidé de construire un quatrième caveau, de soixante cases, dans la partie antérieure inoccupée. Le budget sera finalement débloqué en 1923.
 L'obélisque comporte 78 noms. Exclusivement des hommes décédés entre 1891 à 1985. Les agents inhumés, dont les noms sont gravés sur les faces latérales du monument, représentent les métiers de la Ville de Paris à la fin du 19e et au 20e siècle : ajusteurs, bûcherons-élagueurs, cantonniers, charretiers, cochers, conducteurs d'automobile, égoutiers, fontainiers, jardiniers, instituteurs, machinistes, manœuvres à l'usine des eaux, paveurs, porteurs des Pompes funèbres, sauveteurs, surveillants d'entrepôts et de chantiers du métro, etc.
 </t>
         </is>
